--- a/biology/Médecine/Volume_d'éjection_systolique/Volume_d'éjection_systolique.xlsx
+++ b/biology/Médecine/Volume_d'éjection_systolique/Volume_d'éjection_systolique.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Volume_d%27%C3%A9jection_systolique</t>
+          <t>Volume_d'éjection_systolique</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le volume d'éjection systolique, ou VES, est le volume de sang que le cœur éjecte à chaque battement (systole).
 Il est la plupart du temps exprimé en millilitres (mL). Il dépend d'une multitude de facteurs, notamment de la taille du cœur, de son remplissage, de la force et de la durée de la contraction et de la résistance à l'éjection du sang dans la circulation systémique.
@@ -495,7 +507,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Volume_d%27%C3%A9jection_systolique</t>
+          <t>Volume_d'éjection_systolique</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -513,7 +525,9 @@
           <t>Calcul</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Le VES peut être calculé comme suit :
         V
@@ -555,7 +569,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Volume_d%27%C3%A9jection_systolique</t>
+          <t>Volume_d'éjection_systolique</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -573,7 +587,9 @@
           <t>Déterminants</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Le volume d'éjection systolique est déterminé pas 3 grands mécanismes non régulés : 
 La loi de Starling : elle dit qu'un muscle étiré exerce une contraction en retour d'autant plus forte que son étirement est grand. Donc quand beaucoup de sang arrive dans le ventricule, il se contracte plus fort pour en éjecter un plus grand volume d'un coup. C'est un phénomène purement mécanique donc non régulé.
@@ -588,7 +604,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Volume_d%27%C3%A9jection_systolique</t>
+          <t>Volume_d'éjection_systolique</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -606,7 +622,9 @@
           <t>Détermination</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Il peut être fait soit directement par une technique d'imagerie du cœur :
 Échocardiographie ;
